--- a/RequiredInstruments.xlsx
+++ b/RequiredInstruments.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="30" windowWidth="22035" windowHeight="10290"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RequiredInstruments" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -199,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,9 +231,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +593,13 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -615,10 +622,10 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
@@ -630,10 +637,10 @@
       <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -647,7 +654,7 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
@@ -662,7 +669,7 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="J4" t="s">
@@ -676,10 +683,10 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
@@ -691,7 +698,7 @@
       <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="J5" t="s">
@@ -699,13 +706,13 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
@@ -717,7 +724,7 @@
       <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J6" t="s">
@@ -725,13 +732,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
@@ -740,7 +747,7 @@
       <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="J7" t="s">
@@ -754,16 +761,16 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J8" t="s">
